--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/1.NhanBH/NBH230403_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/1.NhanBH/NBH230403_LapDat.xlsx
@@ -428,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -484,6 +484,48 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,54 +561,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -941,92 +935,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -1100,217 +1094,114 @@
       </c>
       <c r="F13" s="26"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="43" t="s">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
